--- a/Grafico_Pareto/Dados.xlsx
+++ b/Grafico_Pareto/Dados.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Produto: Pesquisa de Campo</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Transmissão do HIV</t>
+  </si>
+  <si>
+    <t>Porcentagem</t>
   </si>
 </sst>
 </file>
@@ -137,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -162,6 +165,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -468,7 +478,7 @@
   <dimension ref="B9:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,6 +486,7 @@
     <col min="1" max="1" width="32.140625" customWidth="1"/>
     <col min="2" max="2" width="38.42578125" customWidth="1"/>
     <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -485,12 +496,14 @@
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="1"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
@@ -499,6 +512,7 @@
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
@@ -507,6 +521,7 @@
       <c r="C12" s="1">
         <v>50</v>
       </c>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
@@ -515,6 +530,9 @@
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
@@ -523,6 +541,9 @@
       <c r="C14" s="1">
         <v>21</v>
       </c>
+      <c r="D14" s="11">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
@@ -531,6 +552,9 @@
       <c r="C15" s="1">
         <v>37</v>
       </c>
+      <c r="D15" s="11">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
@@ -539,7 +563,9 @@
       <c r="C16" s="9">
         <v>12</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="11">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
@@ -548,7 +574,9 @@
       <c r="C17" s="9">
         <v>24</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="12">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D18" s="4"/>
